--- a/paper/tables/tables.xlsx
+++ b/paper/tables/tables.xlsx
@@ -692,7 +692,7 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>normal: 56.3% (648)
-overweigth: 28.4% (327)
+overweight: 28.4% (327)
 obesity: 15.2% (175) 
 ncomplete = 1150</t>
         </is>
@@ -700,7 +700,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>normal: 64.7% (570)
-overweigth: 26.2% (231)
+overweight: 26.2% (231)
 obesity: 9.08% (80) 
 ncomplete = 881</t>
         </is>
